--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -13,16 +13,16 @@
     <workbookView xWindow="5505" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId7" sheetId="10"/>
-    <sheet name="boards" r:id="rId8" sheetId="11"/>
-    <sheet name="projects" r:id="rId9" sheetId="12"/>
+    <sheet name="users" r:id="rId7" sheetId="31"/>
+    <sheet name="boards" r:id="rId8" sheetId="32"/>
+    <sheet name="projects" r:id="rId9" sheetId="33"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="91">
   <si>
     <t>no</t>
   </si>
@@ -273,6 +273,33 @@
   </si>
   <si>
     <t>6,7</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user9@test.com</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user11@test.com</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>151515</t>
+  </si>
+  <si>
+    <t>2024-07-26 14:23:34</t>
   </si>
 </sst>
 </file>
@@ -634,9 +661,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -778,14 +805,48 @@
         <v>45</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1063,12 +1124,29 @@
         <v>34</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1113,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -1133,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -1153,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -1173,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
